--- a/examples/src/test/resources/examples/examples.xlsx
+++ b/examples/src/test/resources/examples/examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\microservices-lowcode-testautomation\example\src\test\resources\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\examples\src\test\resources\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27556B17-1F78-49C9-A6E3-6045B891470B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF68B2DB-F437-4E4E-9931-295BD72C58B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>id=customers[-1].customerId</t>
+  </si>
+  <si>
+    <t>api</t>
   </si>
 </sst>
 </file>
@@ -671,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +748,9 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
@@ -778,7 +783,9 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
@@ -811,7 +818,9 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
@@ -917,7 +926,9 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
@@ -955,6 +966,7 @@
     <hyperlink ref="E7" r:id="rId2" xr:uid="{222B9008-B6F1-43AD-AB02-552007F39E4F}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{4201C29B-B67D-48C2-92AE-011AA2CEB9F2}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{3EC53EBE-1EE4-4EE8-9A11-2B6EBDD2FC2A}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{F8D0F8B1-CC01-462C-A581-AAA105EA019C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/src/test/resources/examples/examples.xlsx
+++ b/examples/src/test/resources/examples/examples.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\examples\src\test\resources\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\examples\src\test\resources\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF68B2DB-F437-4E4E-9931-295BD72C58B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCC133-95CB-439F-86D7-F4C87A0D88F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Examples" sheetId="3" r:id="rId1"/>
+    <sheet name="JSON-path-Examples" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t xml:space="preserve"> @examples</t>
-  </si>
-  <si>
-    <t>@examples</t>
-  </si>
-  <si>
     <t>ReadCustomers-FindLast</t>
   </si>
   <si>
@@ -179,6 +173,21 @@
   </si>
   <si>
     <t>api</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @simple-get</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @json-path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @json-path  @json-path-by-field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @non-json-response @direct-response @dynamic-variable  @specific-validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @json-path @store-json-path @last-json-array-response</t>
   </si>
 </sst>
 </file>
@@ -230,57 +239,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -294,40 +257,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -335,28 +267,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +614,7 @@
     <col min="12" max="12" width="65.42578125" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -701,7 +624,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -713,251 +636,262 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>200</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6">
-        <v>200</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6">
-        <v>200</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>200</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="8" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
-        <v>40</v>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>200</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
-        <v>200</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8"/>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
+      <c r="N6" s="3"/>
+      <c r="O6" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>200</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="6">
         <v>65</v>
       </c>
-      <c r="M7" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O7" t="s">
-        <v>40</v>
+      <c r="O7" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -969,5 +903,6 @@
     <hyperlink ref="E2" r:id="rId5" xr:uid="{F8D0F8B1-CC01-462C-A581-AAA105EA019C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>